--- a/non_explainable_medium_disc/test/discriminated_instances.xlsx
+++ b/non_explainable_medium_disc/test/discriminated_instances.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B332"/>
+  <dimension ref="A1:B741"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>76</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -460,7 +460,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>87</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -476,7 +476,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>103</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -484,7 +484,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>121</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8">
@@ -492,7 +492,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>142</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -500,7 +500,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>170</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
@@ -508,7 +508,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>174</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
@@ -516,7 +516,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>178</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12">
@@ -524,7 +524,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>195</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -532,7 +532,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>257</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
@@ -540,7 +540,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>265</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
@@ -548,7 +548,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>279</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16">
@@ -556,7 +556,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>281</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17">
@@ -564,7 +564,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>297</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18">
@@ -572,7 +572,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>299</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19">
@@ -580,7 +580,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>304</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20">
@@ -588,7 +588,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>313</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21">
@@ -596,7 +596,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>347</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22">
@@ -604,7 +604,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>356</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23">
@@ -612,7 +612,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>365</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24">
@@ -620,7 +620,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>378</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25">
@@ -628,7 +628,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>411</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26">
@@ -636,7 +636,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>431</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27">
@@ -644,7 +644,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>438</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28">
@@ -652,7 +652,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>447</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29">
@@ -660,7 +660,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>452</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30">
@@ -668,7 +668,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>483</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31">
@@ -676,7 +676,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>490</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32">
@@ -684,7 +684,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>495</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33">
@@ -692,7 +692,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>504</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34">
@@ -700,7 +700,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>513</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35">
@@ -708,7 +708,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>519</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36">
@@ -716,7 +716,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>523</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37">
@@ -724,7 +724,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>548</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38">
@@ -732,7 +732,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>552</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39">
@@ -740,7 +740,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>567</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40">
@@ -748,7 +748,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>573</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41">
@@ -756,7 +756,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>600</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42">
@@ -764,7 +764,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>603</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43">
@@ -772,7 +772,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>630</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44">
@@ -780,7 +780,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>639</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45">
@@ -788,7 +788,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>640</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46">
@@ -796,7 +796,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>649</v>
+        <v>336</v>
       </c>
     </row>
     <row r="47">
@@ -804,7 +804,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>660</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48">
@@ -812,7 +812,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>677</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49">
@@ -820,7 +820,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>697</v>
+        <v>365</v>
       </c>
     </row>
     <row r="50">
@@ -828,7 +828,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>728</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51">
@@ -836,7 +836,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>740</v>
+        <v>386</v>
       </c>
     </row>
     <row r="52">
@@ -844,7 +844,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>744</v>
+        <v>403</v>
       </c>
     </row>
     <row r="53">
@@ -852,7 +852,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>748</v>
+        <v>408</v>
       </c>
     </row>
     <row r="54">
@@ -860,7 +860,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>765</v>
+        <v>411</v>
       </c>
     </row>
     <row r="55">
@@ -868,7 +868,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>786</v>
+        <v>418</v>
       </c>
     </row>
     <row r="56">
@@ -876,7 +876,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>802</v>
+        <v>419</v>
       </c>
     </row>
     <row r="57">
@@ -884,7 +884,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>805</v>
+        <v>428</v>
       </c>
     </row>
     <row r="58">
@@ -892,7 +892,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>822</v>
+        <v>430</v>
       </c>
     </row>
     <row r="59">
@@ -900,7 +900,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>922</v>
+        <v>431</v>
       </c>
     </row>
     <row r="60">
@@ -908,7 +908,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>930</v>
+        <v>433</v>
       </c>
     </row>
     <row r="61">
@@ -916,7 +916,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>936</v>
+        <v>434</v>
       </c>
     </row>
     <row r="62">
@@ -924,7 +924,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>942</v>
+        <v>438</v>
       </c>
     </row>
     <row r="63">
@@ -932,7 +932,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>945</v>
+        <v>444</v>
       </c>
     </row>
     <row r="64">
@@ -940,7 +940,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>958</v>
+        <v>447</v>
       </c>
     </row>
     <row r="65">
@@ -948,7 +948,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1002</v>
+        <v>452</v>
       </c>
     </row>
     <row r="66">
@@ -956,7 +956,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1029</v>
+        <v>459</v>
       </c>
     </row>
     <row r="67">
@@ -964,7 +964,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1038</v>
+        <v>462</v>
       </c>
     </row>
     <row r="68">
@@ -972,7 +972,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1039</v>
+        <v>474</v>
       </c>
     </row>
     <row r="69">
@@ -980,7 +980,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1065</v>
+        <v>483</v>
       </c>
     </row>
     <row r="70">
@@ -988,7 +988,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1117</v>
+        <v>490</v>
       </c>
     </row>
     <row r="71">
@@ -996,7 +996,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1155</v>
+        <v>504</v>
       </c>
     </row>
     <row r="72">
@@ -1004,7 +1004,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1163</v>
+        <v>513</v>
       </c>
     </row>
     <row r="73">
@@ -1012,7 +1012,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1171</v>
+        <v>522</v>
       </c>
     </row>
     <row r="74">
@@ -1020,7 +1020,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1184</v>
+        <v>523</v>
       </c>
     </row>
     <row r="75">
@@ -1028,7 +1028,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1186</v>
+        <v>526</v>
       </c>
     </row>
     <row r="76">
@@ -1036,7 +1036,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1198</v>
+        <v>532</v>
       </c>
     </row>
     <row r="77">
@@ -1044,7 +1044,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1208</v>
+        <v>541</v>
       </c>
     </row>
     <row r="78">
@@ -1052,7 +1052,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1210</v>
+        <v>545</v>
       </c>
     </row>
     <row r="79">
@@ -1060,7 +1060,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1216</v>
+        <v>552</v>
       </c>
     </row>
     <row r="80">
@@ -1068,7 +1068,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1220</v>
+        <v>562</v>
       </c>
     </row>
     <row r="81">
@@ -1076,7 +1076,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1231</v>
+        <v>563</v>
       </c>
     </row>
     <row r="82">
@@ -1084,7 +1084,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1253</v>
+        <v>567</v>
       </c>
     </row>
     <row r="83">
@@ -1092,7 +1092,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1284</v>
+        <v>572</v>
       </c>
     </row>
     <row r="84">
@@ -1100,7 +1100,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1304</v>
+        <v>573</v>
       </c>
     </row>
     <row r="85">
@@ -1108,7 +1108,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1308</v>
+        <v>578</v>
       </c>
     </row>
     <row r="86">
@@ -1116,7 +1116,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1323</v>
+        <v>600</v>
       </c>
     </row>
     <row r="87">
@@ -1124,7 +1124,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1341</v>
+        <v>613</v>
       </c>
     </row>
     <row r="88">
@@ -1132,7 +1132,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1347</v>
+        <v>624</v>
       </c>
     </row>
     <row r="89">
@@ -1140,7 +1140,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1351</v>
+        <v>626</v>
       </c>
     </row>
     <row r="90">
@@ -1148,7 +1148,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1352</v>
+        <v>630</v>
       </c>
     </row>
     <row r="91">
@@ -1156,7 +1156,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1383</v>
+        <v>639</v>
       </c>
     </row>
     <row r="92">
@@ -1164,7 +1164,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1423</v>
+        <v>640</v>
       </c>
     </row>
     <row r="93">
@@ -1172,7 +1172,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1434</v>
+        <v>649</v>
       </c>
     </row>
     <row r="94">
@@ -1180,7 +1180,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1445</v>
+        <v>660</v>
       </c>
     </row>
     <row r="95">
@@ -1188,7 +1188,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1448</v>
+        <v>662</v>
       </c>
     </row>
     <row r="96">
@@ -1196,7 +1196,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1468</v>
+        <v>663</v>
       </c>
     </row>
     <row r="97">
@@ -1204,7 +1204,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1495</v>
+        <v>676</v>
       </c>
     </row>
     <row r="98">
@@ -1212,7 +1212,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1504</v>
+        <v>679</v>
       </c>
     </row>
     <row r="99">
@@ -1220,7 +1220,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1521</v>
+        <v>681</v>
       </c>
     </row>
     <row r="100">
@@ -1228,7 +1228,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1537</v>
+        <v>697</v>
       </c>
     </row>
     <row r="101">
@@ -1236,7 +1236,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1552</v>
+        <v>706</v>
       </c>
     </row>
     <row r="102">
@@ -1244,7 +1244,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1561</v>
+        <v>728</v>
       </c>
     </row>
     <row r="103">
@@ -1252,7 +1252,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1576</v>
+        <v>735</v>
       </c>
     </row>
     <row r="104">
@@ -1260,7 +1260,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1581</v>
+        <v>743</v>
       </c>
     </row>
     <row r="105">
@@ -1268,7 +1268,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1600</v>
+        <v>744</v>
       </c>
     </row>
     <row r="106">
@@ -1276,7 +1276,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1609</v>
+        <v>763</v>
       </c>
     </row>
     <row r="107">
@@ -1284,7 +1284,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1623</v>
+        <v>765</v>
       </c>
     </row>
     <row r="108">
@@ -1292,7 +1292,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1631</v>
+        <v>771</v>
       </c>
     </row>
     <row r="109">
@@ -1300,7 +1300,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1661</v>
+        <v>786</v>
       </c>
     </row>
     <row r="110">
@@ -1308,7 +1308,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1695</v>
+        <v>790</v>
       </c>
     </row>
     <row r="111">
@@ -1316,7 +1316,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1696</v>
+        <v>801</v>
       </c>
     </row>
     <row r="112">
@@ -1324,7 +1324,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1721</v>
+        <v>802</v>
       </c>
     </row>
     <row r="113">
@@ -1332,7 +1332,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1745</v>
+        <v>805</v>
       </c>
     </row>
     <row r="114">
@@ -1340,7 +1340,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1764</v>
+        <v>816</v>
       </c>
     </row>
     <row r="115">
@@ -1348,7 +1348,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1785</v>
+        <v>819</v>
       </c>
     </row>
     <row r="116">
@@ -1356,7 +1356,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1804</v>
+        <v>821</v>
       </c>
     </row>
     <row r="117">
@@ -1364,7 +1364,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="118">
@@ -1372,7 +1372,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1837</v>
+        <v>827</v>
       </c>
     </row>
     <row r="119">
@@ -1380,7 +1380,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1860</v>
+        <v>834</v>
       </c>
     </row>
     <row r="120">
@@ -1388,7 +1388,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1905</v>
+        <v>842</v>
       </c>
     </row>
     <row r="121">
@@ -1396,7 +1396,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1907</v>
+        <v>852</v>
       </c>
     </row>
     <row r="122">
@@ -1404,7 +1404,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1908</v>
+        <v>854</v>
       </c>
     </row>
     <row r="123">
@@ -1412,7 +1412,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1925</v>
+        <v>867</v>
       </c>
     </row>
     <row r="124">
@@ -1420,7 +1420,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1926</v>
+        <v>870</v>
       </c>
     </row>
     <row r="125">
@@ -1428,7 +1428,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1928</v>
+        <v>872</v>
       </c>
     </row>
     <row r="126">
@@ -1436,7 +1436,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1929</v>
+        <v>879</v>
       </c>
     </row>
     <row r="127">
@@ -1444,7 +1444,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1956</v>
+        <v>900</v>
       </c>
     </row>
     <row r="128">
@@ -1452,7 +1452,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1964</v>
+        <v>901</v>
       </c>
     </row>
     <row r="129">
@@ -1460,7 +1460,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1966</v>
+        <v>923</v>
       </c>
     </row>
     <row r="130">
@@ -1468,7 +1468,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1985</v>
+        <v>936</v>
       </c>
     </row>
     <row r="131">
@@ -1476,7 +1476,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>2006</v>
+        <v>942</v>
       </c>
     </row>
     <row r="132">
@@ -1484,7 +1484,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>2007</v>
+        <v>955</v>
       </c>
     </row>
     <row r="133">
@@ -1492,7 +1492,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>2022</v>
+        <v>958</v>
       </c>
     </row>
     <row r="134">
@@ -1500,7 +1500,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>2044</v>
+        <v>960</v>
       </c>
     </row>
     <row r="135">
@@ -1508,7 +1508,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>2051</v>
+        <v>984</v>
       </c>
     </row>
     <row r="136">
@@ -1516,7 +1516,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>2065</v>
+        <v>985</v>
       </c>
     </row>
     <row r="137">
@@ -1524,7 +1524,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>2069</v>
+        <v>994</v>
       </c>
     </row>
     <row r="138">
@@ -1532,7 +1532,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>2075</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="139">
@@ -1540,7 +1540,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>2076</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="140">
@@ -1548,7 +1548,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>2080</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="141">
@@ -1556,7 +1556,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>2092</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="142">
@@ -1564,7 +1564,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>2100</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="143">
@@ -1572,7 +1572,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>2118</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="144">
@@ -1580,7 +1580,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>2119</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="145">
@@ -1588,7 +1588,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>2121</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="146">
@@ -1596,7 +1596,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>2130</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="147">
@@ -1604,7 +1604,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>2134</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="148">
@@ -1612,7 +1612,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>2138</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="149">
@@ -1620,7 +1620,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>2145</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="150">
@@ -1628,7 +1628,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>2186</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="151">
@@ -1636,7 +1636,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>2188</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="152">
@@ -1644,7 +1644,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>2216</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="153">
@@ -1652,7 +1652,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>2228</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="154">
@@ -1660,7 +1660,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>2236</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="155">
@@ -1668,7 +1668,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>2253</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="156">
@@ -1676,7 +1676,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>2259</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="157">
@@ -1684,7 +1684,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>2270</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="158">
@@ -1692,7 +1692,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>2289</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="159">
@@ -1700,7 +1700,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>2304</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="160">
@@ -1708,7 +1708,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>2306</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="161">
@@ -1716,7 +1716,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>2350</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="162">
@@ -1724,7 +1724,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>2374</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="163">
@@ -1732,7 +1732,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>2380</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="164">
@@ -1740,7 +1740,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>2381</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="165">
@@ -1748,7 +1748,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>2387</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="166">
@@ -1756,7 +1756,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>2388</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="167">
@@ -1764,7 +1764,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>2399</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="168">
@@ -1772,7 +1772,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>2400</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="169">
@@ -1780,7 +1780,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>2402</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="170">
@@ -1788,7 +1788,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>2410</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="171">
@@ -1796,7 +1796,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>2417</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="172">
@@ -1804,7 +1804,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>2439</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="173">
@@ -1812,7 +1812,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>2444</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="174">
@@ -1820,7 +1820,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>2462</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="175">
@@ -1828,7 +1828,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>2489</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="176">
@@ -1836,7 +1836,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>2506</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="177">
@@ -1844,7 +1844,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>2519</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="178">
@@ -1852,7 +1852,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>2544</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="179">
@@ -1860,7 +1860,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>2545</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="180">
@@ -1868,7 +1868,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>2564</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="181">
@@ -1876,7 +1876,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>2580</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="182">
@@ -1884,7 +1884,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>2581</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="183">
@@ -1892,7 +1892,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>2621</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="184">
@@ -1900,7 +1900,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>2627</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="185">
@@ -1908,7 +1908,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>2634</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="186">
@@ -1916,7 +1916,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>2635</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="187">
@@ -1924,7 +1924,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>2648</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="188">
@@ -1932,7 +1932,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>2657</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="189">
@@ -1940,7 +1940,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>2661</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="190">
@@ -1948,7 +1948,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>2674</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="191">
@@ -1956,7 +1956,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>2676</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="192">
@@ -1964,7 +1964,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>2680</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="193">
@@ -1972,7 +1972,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>2684</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="194">
@@ -1980,7 +1980,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>2699</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="195">
@@ -1988,7 +1988,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>2712</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="196">
@@ -1996,7 +1996,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>2749</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="197">
@@ -2004,7 +2004,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>2760</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="198">
@@ -2012,7 +2012,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>2772</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="199">
@@ -2020,7 +2020,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>2789</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="200">
@@ -2028,7 +2028,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>2798</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="201">
@@ -2036,7 +2036,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>2800</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="202">
@@ -2044,7 +2044,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>2818</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="203">
@@ -2052,7 +2052,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>2853</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="204">
@@ -2060,7 +2060,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>2876</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="205">
@@ -2068,7 +2068,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>2904</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="206">
@@ -2076,7 +2076,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>2909</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="207">
@@ -2084,7 +2084,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>2918</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="208">
@@ -2092,7 +2092,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>2919</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="209">
@@ -2100,7 +2100,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>2922</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="210">
@@ -2108,7 +2108,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>2934</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="211">
@@ -2116,7 +2116,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>2975</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="212">
@@ -2124,7 +2124,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>2980</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="213">
@@ -2132,7 +2132,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>3018</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="214">
@@ -2140,7 +2140,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>3026</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="215">
@@ -2148,7 +2148,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>3030</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="216">
@@ -2156,7 +2156,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>3047</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="217">
@@ -2164,7 +2164,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>3056</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="218">
@@ -2172,7 +2172,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>3089</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="219">
@@ -2180,7 +2180,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>3098</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="220">
@@ -2188,7 +2188,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>3109</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="221">
@@ -2196,7 +2196,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>3115</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="222">
@@ -2204,7 +2204,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>3180</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="223">
@@ -2212,7 +2212,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>3199</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="224">
@@ -2220,7 +2220,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>3223</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="225">
@@ -2228,7 +2228,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>3227</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="226">
@@ -2236,7 +2236,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>3230</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="227">
@@ -2244,7 +2244,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>3253</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="228">
@@ -2252,7 +2252,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>3263</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="229">
@@ -2260,7 +2260,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>3269</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="230">
@@ -2268,7 +2268,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>3277</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="231">
@@ -2276,7 +2276,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>3284</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="232">
@@ -2284,7 +2284,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>3317</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="233">
@@ -2292,7 +2292,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>3322</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="234">
@@ -2300,7 +2300,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>3341</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="235">
@@ -2308,7 +2308,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>3344</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="236">
@@ -2316,7 +2316,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>3378</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="237">
@@ -2324,7 +2324,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>3382</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="238">
@@ -2332,7 +2332,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>3391</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="239">
@@ -2340,7 +2340,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>3425</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="240">
@@ -2348,7 +2348,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>3467</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="241">
@@ -2356,7 +2356,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>3481</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="242">
@@ -2364,7 +2364,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>3502</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="243">
@@ -2372,7 +2372,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>3556</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="244">
@@ -2380,7 +2380,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>3560</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="245">
@@ -2388,7 +2388,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>3583</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="246">
@@ -2396,7 +2396,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>3587</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="247">
@@ -2404,7 +2404,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>3650</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="248">
@@ -2412,7 +2412,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>3651</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="249">
@@ -2420,7 +2420,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>3678</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="250">
@@ -2428,7 +2428,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>3722</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="251">
@@ -2436,7 +2436,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>3726</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="252">
@@ -2444,7 +2444,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>3746</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="253">
@@ -2452,7 +2452,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>3748</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="254">
@@ -2460,7 +2460,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>3761</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="255">
@@ -2468,7 +2468,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>3787</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="256">
@@ -2476,7 +2476,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>3818</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="257">
@@ -2484,7 +2484,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>3826</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="258">
@@ -2492,7 +2492,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>3832</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="259">
@@ -2500,7 +2500,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>3837</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="260">
@@ -2508,7 +2508,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>3852</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="261">
@@ -2516,7 +2516,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>3880</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="262">
@@ -2524,7 +2524,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>3932</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="263">
@@ -2532,7 +2532,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>3934</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="264">
@@ -2540,7 +2540,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>3938</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="265">
@@ -2548,7 +2548,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>3968</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="266">
@@ -2556,7 +2556,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>3984</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="267">
@@ -2564,7 +2564,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>3988</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="268">
@@ -2572,7 +2572,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>3992</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="269">
@@ -2580,7 +2580,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>4030</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="270">
@@ -2588,7 +2588,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>4054</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="271">
@@ -2596,7 +2596,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>4076</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="272">
@@ -2604,7 +2604,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>4118</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="273">
@@ -2612,7 +2612,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>4128</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="274">
@@ -2620,7 +2620,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>4139</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="275">
@@ -2628,7 +2628,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>4144</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="276">
@@ -2636,7 +2636,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>4160</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="277">
@@ -2644,7 +2644,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>4215</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="278">
@@ -2652,7 +2652,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>4219</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="279">
@@ -2660,7 +2660,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>4221</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="280">
@@ -2668,7 +2668,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>4224</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="281">
@@ -2676,7 +2676,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>4228</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="282">
@@ -2684,7 +2684,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>4232</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="283">
@@ -2692,7 +2692,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>4234</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="284">
@@ -2700,7 +2700,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>4252</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="285">
@@ -2708,7 +2708,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>4282</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="286">
@@ -2716,7 +2716,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>4294</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="287">
@@ -2724,7 +2724,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>4296</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="288">
@@ -2732,7 +2732,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>4302</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="289">
@@ -2740,7 +2740,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>4313</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="290">
@@ -2748,7 +2748,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>4316</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="291">
@@ -2756,7 +2756,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>4327</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="292">
@@ -2764,7 +2764,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>4340</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="293">
@@ -2772,7 +2772,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>4352</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="294">
@@ -2780,7 +2780,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>4354</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="295">
@@ -2788,7 +2788,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>4355</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="296">
@@ -2796,7 +2796,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>4362</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="297">
@@ -2804,7 +2804,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>4378</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="298">
@@ -2812,7 +2812,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>4379</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="299">
@@ -2820,7 +2820,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>4384</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="300">
@@ -2828,7 +2828,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>4385</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="301">
@@ -2836,7 +2836,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>4404</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="302">
@@ -2844,7 +2844,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>4408</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="303">
@@ -2852,7 +2852,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>4428</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="304">
@@ -2860,7 +2860,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>4438</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="305">
@@ -2868,7 +2868,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>4462</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="306">
@@ -2876,7 +2876,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>4496</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="307">
@@ -2884,7 +2884,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>4514</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="308">
@@ -2892,7 +2892,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>4543</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="309">
@@ -2900,7 +2900,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>4566</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="310">
@@ -2908,7 +2908,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>4604</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="311">
@@ -2916,7 +2916,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>4613</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="312">
@@ -2924,7 +2924,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>4624</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="313">
@@ -2932,7 +2932,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>4655</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="314">
@@ -2940,7 +2940,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>4656</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="315">
@@ -2948,7 +2948,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>4674</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="316">
@@ -2956,7 +2956,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>4703</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="317">
@@ -2964,7 +2964,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>4711</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="318">
@@ -2972,7 +2972,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>4728</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="319">
@@ -2980,7 +2980,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>4740</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="320">
@@ -2988,7 +2988,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>4745</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="321">
@@ -2996,7 +2996,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>4751</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="322">
@@ -3004,7 +3004,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>4768</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="323">
@@ -3012,7 +3012,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>4776</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="324">
@@ -3020,7 +3020,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>4792</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="325">
@@ -3028,7 +3028,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>4795</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="326">
@@ -3036,7 +3036,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>4822</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="327">
@@ -3044,7 +3044,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>4859</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="328">
@@ -3052,7 +3052,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>4871</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="329">
@@ -3060,7 +3060,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>4873</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="330">
@@ -3068,7 +3068,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>4911</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="331">
@@ -3076,7 +3076,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>4912</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="332">
@@ -3084,7 +3084,3279 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="n">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="n">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="n">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="n">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="n">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="n">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="n">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="n">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="n">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="n">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="n">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="n">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="n">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="n">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="n">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="n">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="n">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="n">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="n">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="n">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="n">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="n">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="n">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="n">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="n">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="n">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="n">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="n">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="n">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="n">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="n">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="n">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="n">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="n">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="n">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="n">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="n">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="n">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="n">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="n">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="n">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="n">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="n">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="n">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="n">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="n">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="n">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="n">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="n">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="n">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="n">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="n">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="n">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="n">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="n">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" t="n">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" t="n">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="n">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="n">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="n">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="n">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="n">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="n">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="n">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="n">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="n">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="n">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="n">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="n">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="n">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="n">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="n">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="n">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" t="n">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" t="n">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" t="n">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" t="n">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" t="n">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" t="n">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" t="n">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" t="n">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="n">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="n">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="n">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="n">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" t="n">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="n">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="n">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="n">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" t="n">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="n">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="n">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="n">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="n">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="n">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="n">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" t="n">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" t="n">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" t="n">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="B491" t="n">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="B492" t="n">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="B493" t="n">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" t="n">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B495" t="n">
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B496" t="n">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" t="n">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" t="n">
+        <v>3483</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" t="n">
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" t="n">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B502" t="n">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B503" t="n">
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="B504" t="n">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B505" t="n">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="B506" t="n">
+        <v>3546</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="B507" t="n">
+        <v>3552</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="B508" t="n">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="B509" t="n">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>508</v>
+      </c>
+      <c r="B510" t="n">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>509</v>
+      </c>
+      <c r="B511" t="n">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="B512" t="n">
+        <v>3583</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>511</v>
+      </c>
+      <c r="B513" t="n">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="B514" t="n">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>513</v>
+      </c>
+      <c r="B515" t="n">
+        <v>3616</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>514</v>
+      </c>
+      <c r="B516" t="n">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="B517" t="n">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="B518" t="n">
+        <v>3627</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="B519" t="n">
+        <v>3648</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>518</v>
+      </c>
+      <c r="B520" t="n">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>519</v>
+      </c>
+      <c r="B521" t="n">
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B522" t="n">
+        <v>3655</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="B523" t="n">
+        <v>3661</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>522</v>
+      </c>
+      <c r="B524" t="n">
+        <v>3667</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>523</v>
+      </c>
+      <c r="B525" t="n">
+        <v>3678</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="B526" t="n">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="B527" t="n">
+        <v>3684</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="B528" t="n">
+        <v>3694</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="B529" t="n">
+        <v>3698</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="B530" t="n">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="B531" t="n">
+        <v>3722</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="B532" t="n">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="B533" t="n">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="B534" t="n">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="B535" t="n">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="B536" t="n">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" t="n">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B538" t="n">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B539" t="n">
+        <v>3766</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="B540" t="n">
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B541" t="n">
+        <v>3771</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B542" t="n">
+        <v>3778</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="B543" t="n">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="B544" t="n">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="B545" t="n">
+        <v>3786</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="B546" t="n">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="B547" t="n">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="B548" t="n">
+        <v>3812</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="B549" t="n">
+        <v>3815</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="B550" t="n">
+        <v>3818</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="B551" t="n">
+        <v>3826</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B552" t="n">
+        <v>3828</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="B553" t="n">
+        <v>3837</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="B554" t="n">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
+        <v>553</v>
+      </c>
+      <c r="B555" t="n">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="n">
+        <v>554</v>
+      </c>
+      <c r="B556" t="n">
+        <v>3852</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="n">
+        <v>555</v>
+      </c>
+      <c r="B557" t="n">
+        <v>3867</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="n">
+        <v>556</v>
+      </c>
+      <c r="B558" t="n">
+        <v>3873</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="n">
+        <v>557</v>
+      </c>
+      <c r="B559" t="n">
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="B560" t="n">
+        <v>3884</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="n">
+        <v>559</v>
+      </c>
+      <c r="B561" t="n">
+        <v>3888</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="B562" t="n">
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="n">
+        <v>561</v>
+      </c>
+      <c r="B563" t="n">
+        <v>3914</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="n">
+        <v>562</v>
+      </c>
+      <c r="B564" t="n">
+        <v>3921</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n">
+        <v>563</v>
+      </c>
+      <c r="B565" t="n">
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>564</v>
+      </c>
+      <c r="B566" t="n">
+        <v>3924</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="B567" t="n">
+        <v>3932</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="B568" t="n">
+        <v>3934</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>567</v>
+      </c>
+      <c r="B569" t="n">
+        <v>3938</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>568</v>
+      </c>
+      <c r="B570" t="n">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>569</v>
+      </c>
+      <c r="B571" t="n">
+        <v>3945</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
+        <v>570</v>
+      </c>
+      <c r="B572" t="n">
+        <v>3952</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
+        <v>571</v>
+      </c>
+      <c r="B573" t="n">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="n">
+        <v>572</v>
+      </c>
+      <c r="B574" t="n">
+        <v>3955</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n">
+        <v>573</v>
+      </c>
+      <c r="B575" t="n">
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
+        <v>574</v>
+      </c>
+      <c r="B576" t="n">
+        <v>3971</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n">
+        <v>575</v>
+      </c>
+      <c r="B577" t="n">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
+        <v>576</v>
+      </c>
+      <c r="B578" t="n">
+        <v>3975</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>577</v>
+      </c>
+      <c r="B579" t="n">
+        <v>3981</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="B580" t="n">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="B581" t="n">
+        <v>3988</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="B582" t="n">
+        <v>3992</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B583" t="n">
+        <v>4012</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B584" t="n">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B585" t="n">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B586" t="n">
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="B587" t="n">
+        <v>4051</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="B588" t="n">
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B589" t="n">
+        <v>4063</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="B590" t="n">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="B591" t="n">
+        <v>4076</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B592" t="n">
+        <v>4105</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="B593" t="n">
+        <v>4106</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="B594" t="n">
+        <v>4109</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="B595" t="n">
+        <v>4118</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="B596" t="n">
+        <v>4128</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="B597" t="n">
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="B598" t="n">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="B599" t="n">
+        <v>4139</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="B600" t="n">
+        <v>4141</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="B601" t="n">
+        <v>4144</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="B602" t="n">
+        <v>4146</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B603" t="n">
+        <v>4148</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="B604" t="n">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B605" t="n">
+        <v>4162</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B606" t="n">
+        <v>4168</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B607" t="n">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B608" t="n">
+        <v>4189</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B609" t="n">
+        <v>4198</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="B610" t="n">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="B611" t="n">
+        <v>4213</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="B612" t="n">
+        <v>4215</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="B613" t="n">
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="B614" t="n">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="B615" t="n">
+        <v>4219</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="B616" t="n">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="B617" t="n">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="B618" t="n">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="B619" t="n">
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="B620" t="n">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="B621" t="n">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="B622" t="n">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="B623" t="n">
+        <v>4252</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>622</v>
+      </c>
+      <c r="B624" t="n">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="B625" t="n">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>624</v>
+      </c>
+      <c r="B626" t="n">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="B627" t="n">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>626</v>
+      </c>
+      <c r="B628" t="n">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="B629" t="n">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>628</v>
+      </c>
+      <c r="B630" t="n">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="B631" t="n">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="B632" t="n">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="B633" t="n">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="B634" t="n">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="B635" t="n">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="B636" t="n">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="B637" t="n">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="B638" t="n">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="B639" t="n">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="B640" t="n">
+        <v>4351</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="B641" t="n">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="B642" t="n">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="B643" t="n">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="B644" t="n">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>643</v>
+      </c>
+      <c r="B645" t="n">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>644</v>
+      </c>
+      <c r="B646" t="n">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="B647" t="n">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>646</v>
+      </c>
+      <c r="B648" t="n">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>647</v>
+      </c>
+      <c r="B649" t="n">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>648</v>
+      </c>
+      <c r="B650" t="n">
+        <v>4378</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="B651" t="n">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="B652" t="n">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>651</v>
+      </c>
+      <c r="B653" t="n">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="B654" t="n">
+        <v>4408</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>653</v>
+      </c>
+      <c r="B655" t="n">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>654</v>
+      </c>
+      <c r="B656" t="n">
+        <v>4418</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>655</v>
+      </c>
+      <c r="B657" t="n">
+        <v>4428</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>656</v>
+      </c>
+      <c r="B658" t="n">
+        <v>4429</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>657</v>
+      </c>
+      <c r="B659" t="n">
+        <v>4438</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>658</v>
+      </c>
+      <c r="B660" t="n">
+        <v>4446</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>659</v>
+      </c>
+      <c r="B661" t="n">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>660</v>
+      </c>
+      <c r="B662" t="n">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>661</v>
+      </c>
+      <c r="B663" t="n">
+        <v>4462</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>662</v>
+      </c>
+      <c r="B664" t="n">
+        <v>4476</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>663</v>
+      </c>
+      <c r="B665" t="n">
+        <v>4479</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>664</v>
+      </c>
+      <c r="B666" t="n">
+        <v>4496</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>665</v>
+      </c>
+      <c r="B667" t="n">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>666</v>
+      </c>
+      <c r="B668" t="n">
+        <v>4514</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>667</v>
+      </c>
+      <c r="B669" t="n">
+        <v>4522</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>668</v>
+      </c>
+      <c r="B670" t="n">
+        <v>4552</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>669</v>
+      </c>
+      <c r="B671" t="n">
+        <v>4557</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>670</v>
+      </c>
+      <c r="B672" t="n">
+        <v>4558</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>671</v>
+      </c>
+      <c r="B673" t="n">
+        <v>4561</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>672</v>
+      </c>
+      <c r="B674" t="n">
+        <v>4566</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>673</v>
+      </c>
+      <c r="B675" t="n">
+        <v>4574</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>674</v>
+      </c>
+      <c r="B676" t="n">
+        <v>4597</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>675</v>
+      </c>
+      <c r="B677" t="n">
+        <v>4604</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>676</v>
+      </c>
+      <c r="B678" t="n">
+        <v>4608</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>677</v>
+      </c>
+      <c r="B679" t="n">
+        <v>4613</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="B680" t="n">
+        <v>4645</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>679</v>
+      </c>
+      <c r="B681" t="n">
+        <v>4658</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>680</v>
+      </c>
+      <c r="B682" t="n">
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>681</v>
+      </c>
+      <c r="B683" t="n">
+        <v>4684</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
+        <v>682</v>
+      </c>
+      <c r="B684" t="n">
+        <v>4694</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>683</v>
+      </c>
+      <c r="B685" t="n">
+        <v>4711</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>684</v>
+      </c>
+      <c r="B686" t="n">
+        <v>4719</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>685</v>
+      </c>
+      <c r="B687" t="n">
+        <v>4721</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>686</v>
+      </c>
+      <c r="B688" t="n">
+        <v>4728</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>687</v>
+      </c>
+      <c r="B689" t="n">
+        <v>4740</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>688</v>
+      </c>
+      <c r="B690" t="n">
+        <v>4745</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>689</v>
+      </c>
+      <c r="B691" t="n">
+        <v>4746</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>690</v>
+      </c>
+      <c r="B692" t="n">
+        <v>4748</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>691</v>
+      </c>
+      <c r="B693" t="n">
+        <v>4751</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>692</v>
+      </c>
+      <c r="B694" t="n">
+        <v>4757</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>693</v>
+      </c>
+      <c r="B695" t="n">
+        <v>4767</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>694</v>
+      </c>
+      <c r="B696" t="n">
+        <v>4768</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>695</v>
+      </c>
+      <c r="B697" t="n">
+        <v>4780</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>696</v>
+      </c>
+      <c r="B698" t="n">
+        <v>4783</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>697</v>
+      </c>
+      <c r="B699" t="n">
+        <v>4784</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>698</v>
+      </c>
+      <c r="B700" t="n">
+        <v>4785</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>699</v>
+      </c>
+      <c r="B701" t="n">
+        <v>4792</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="B702" t="n">
+        <v>4795</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>701</v>
+      </c>
+      <c r="B703" t="n">
+        <v>4807</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="B704" t="n">
+        <v>4808</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>703</v>
+      </c>
+      <c r="B705" t="n">
+        <v>4815</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>704</v>
+      </c>
+      <c r="B706" t="n">
+        <v>4822</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>705</v>
+      </c>
+      <c r="B707" t="n">
+        <v>4826</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>706</v>
+      </c>
+      <c r="B708" t="n">
+        <v>4831</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>707</v>
+      </c>
+      <c r="B709" t="n">
+        <v>4837</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>708</v>
+      </c>
+      <c r="B710" t="n">
+        <v>4845</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>709</v>
+      </c>
+      <c r="B711" t="n">
+        <v>4846</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>710</v>
+      </c>
+      <c r="B712" t="n">
+        <v>4851</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>711</v>
+      </c>
+      <c r="B713" t="n">
+        <v>4855</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="B714" t="n">
+        <v>4859</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>713</v>
+      </c>
+      <c r="B715" t="n">
+        <v>4862</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>714</v>
+      </c>
+      <c r="B716" t="n">
+        <v>4864</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>715</v>
+      </c>
+      <c r="B717" t="n">
+        <v>4871</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>716</v>
+      </c>
+      <c r="B718" t="n">
+        <v>4872</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>717</v>
+      </c>
+      <c r="B719" t="n">
+        <v>4873</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>718</v>
+      </c>
+      <c r="B720" t="n">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>719</v>
+      </c>
+      <c r="B721" t="n">
+        <v>4879</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>720</v>
+      </c>
+      <c r="B722" t="n">
+        <v>4884</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>721</v>
+      </c>
+      <c r="B723" t="n">
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="B724" t="n">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>723</v>
+      </c>
+      <c r="B725" t="n">
+        <v>4902</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>724</v>
+      </c>
+      <c r="B726" t="n">
+        <v>4905</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="B727" t="n">
+        <v>4907</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>726</v>
+      </c>
+      <c r="B728" t="n">
+        <v>4911</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>727</v>
+      </c>
+      <c r="B729" t="n">
+        <v>4912</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>728</v>
+      </c>
+      <c r="B730" t="n">
+        <v>4927</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>729</v>
+      </c>
+      <c r="B731" t="n">
+        <v>4939</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>730</v>
+      </c>
+      <c r="B732" t="n">
+        <v>4942</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>731</v>
+      </c>
+      <c r="B733" t="n">
+        <v>4945</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>732</v>
+      </c>
+      <c r="B734" t="n">
         <v>4964</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="B735" t="n">
+        <v>4972</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>734</v>
+      </c>
+      <c r="B736" t="n">
+        <v>4976</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>735</v>
+      </c>
+      <c r="B737" t="n">
+        <v>4979</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="B738" t="n">
+        <v>4980</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>737</v>
+      </c>
+      <c r="B739" t="n">
+        <v>4983</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="B740" t="n">
+        <v>4984</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="B741" t="n">
+        <v>4996</v>
       </c>
     </row>
   </sheetData>
